--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject48.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject48.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.94415120313753498</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -176,7 +176,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1" s="0">
         <v>0</v>
@@ -245,13 +245,13 @@
         <v>0</v>
       </c>
       <c r="AN1" s="0">
-        <v>0</v>
+        <v>0.80316806121768258</v>
       </c>
       <c r="AO1" s="0">
         <v>0</v>
       </c>
       <c r="AP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ1" s="0">
         <v>0</v>
@@ -263,7 +263,7 @@
         <v>0</v>
       </c>
       <c r="AT1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -308,7 +308,7 @@
         <v>0</v>
       </c>
       <c r="BI1" s="0">
-        <v>0</v>
+        <v>0.53866866669787716</v>
       </c>
       <c r="BJ1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.68696207478540172</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.84281414350465078</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.50347769492999794</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="0">
-        <v>0</v>
+        <v>0.75334596352108041</v>
       </c>
       <c r="AB2" s="0">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="0">
-        <v>0</v>
+        <v>0.57670964525574619</v>
       </c>
       <c r="AJ2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.52892076733121951</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>0</v>
+        <v>0.566274485691038</v>
       </c>
       <c r="M3" s="0">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="0">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="0">
-        <v>0</v>
+        <v>0.75572994438072527</v>
       </c>
       <c r="AR3" s="0">
         <v>0</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="0">
-        <v>1</v>
+        <v>0.70773085687114046</v>
       </c>
       <c r="BA3" s="0">
-        <v>0</v>
+        <v>0.55422602796515252</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="0">
-        <v>0</v>
+        <v>0.84117869472973583</v>
       </c>
       <c r="N4" s="0">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="AY4" s="0">
-        <v>0</v>
+        <v>0.63541371770758426</v>
       </c>
       <c r="AZ4" s="0">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="BO4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4" s="0">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="0">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="0">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="0">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="BO5" s="0">
-        <v>0</v>
+        <v>0.62559193551422709</v>
       </c>
       <c r="BP5" s="0">
-        <v>0</v>
+        <v>0.59431764847530033</v>
       </c>
     </row>
     <row r="6">
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.57722858700180235</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.80586924324331477</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>0</v>
+        <v>0.68628834189253674</v>
       </c>
       <c r="R6" s="0">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="0">
-        <v>0</v>
+        <v>0.83304297535504368</v>
       </c>
       <c r="Y6" s="0">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="0">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AI6" s="0">
-        <v>0</v>
+        <v>0.54253952956723273</v>
       </c>
       <c r="AJ6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0</v>
+        <v>0.9165177540979681</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="0">
-        <v>0</v>
+        <v>0.85565603498743514</v>
       </c>
       <c r="AW6" s="0">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>0</v>
+        <v>0.87917242347291358</v>
       </c>
       <c r="AZ6" s="0">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="BG6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="0">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.8151352135985942</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="0">
-        <v>0</v>
+        <v>0.88569623654825302</v>
       </c>
       <c r="Q7" s="0">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="0">
-        <v>0</v>
+        <v>0.52858017461621176</v>
       </c>
       <c r="AK7" s="0">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="0">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.69548680216354053</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="0">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="0">
         <v>0</v>
@@ -1699,16 +1699,16 @@
         <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="0">
         <v>0</v>
       </c>
       <c r="AT8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="0">
-        <v>0</v>
+        <v>0.85444167990640452</v>
       </c>
       <c r="AV8" s="0">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="0">
-        <v>0</v>
+        <v>0.70903767430487452</v>
       </c>
       <c r="BA8" s="0">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="0">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="0">
-        <v>0</v>
+        <v>0.80470779625190481</v>
       </c>
       <c r="AE9" s="0">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="0">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="0">
-        <v>0</v>
+        <v>0.71538205948719436</v>
       </c>
       <c r="BJ9" s="0">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="BM9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="0">
-        <v>0</v>
+        <v>0.97935344390520496</v>
       </c>
       <c r="BO9" s="0">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="0">
-        <v>0</v>
+        <v>0.70654045009287492</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="0">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="AG10" s="0">
-        <v>0</v>
+        <v>0.55087417858384002</v>
       </c>
       <c r="AH10" s="0">
         <v>0</v>
       </c>
       <c r="AI10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0</v>
+        <v>0.80503002416340386</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="0">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="0">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="0">
-        <v>1</v>
+        <v>0.99385061889364379</v>
       </c>
       <c r="BA11" s="0">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="0">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="BL11" s="0">
-        <v>0</v>
+        <v>0.93147054853901312</v>
       </c>
       <c r="BM11" s="0">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>0</v>
+        <v>0.91758663211644254</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.9480172283506636</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="0">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="0">
-        <v>0</v>
+        <v>0.84095272953514788</v>
       </c>
       <c r="AE12" s="0">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="AH12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="0">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="0">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="0">
-        <v>0</v>
+        <v>0.62229702442227752</v>
       </c>
       <c r="BN12" s="0">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>0</v>
+        <v>0.55966846961042416</v>
       </c>
       <c r="E13" s="0">
         <v>0</v>
@@ -2624,16 +2624,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>0</v>
+        <v>0.75780554151610346</v>
       </c>
       <c r="K13" s="0">
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.98785106466078854</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="0">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="0">
-        <v>0</v>
+        <v>0.51854592842725566</v>
       </c>
       <c r="AJ13" s="0">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AM13" s="0">
-        <v>0</v>
+        <v>0.74421294657983716</v>
       </c>
       <c r="AN13" s="0">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AV13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="0">
         <v>0</v>
@@ -2780,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="BI13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ13" s="0">
-        <v>0</v>
+        <v>0.78190287092804855</v>
       </c>
       <c r="BK13" s="0">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="AD14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="0">
-        <v>0</v>
+        <v>0.85510799473560639</v>
       </c>
       <c r="AF14" s="0">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="0">
-        <v>0</v>
+        <v>0.58612548614752336</v>
       </c>
       <c r="BB14" s="0">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="BP14" s="0">
-        <v>0</v>
+        <v>0.87175753750074136</v>
       </c>
     </row>
     <row r="15">
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
-        <v>0</v>
+        <v>0.69122191800037325</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>1</v>
+        <v>0.65713291767360571</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="0">
-        <v>0</v>
+        <v>0.66197804591036058</v>
       </c>
       <c r="BG15" s="0">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="0">
-        <v>0</v>
+        <v>0.65551595970605225</v>
       </c>
       <c r="H16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="0">
-        <v>0</v>
+        <v>0.75831531962923993</v>
       </c>
       <c r="V16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="BD16" s="0">
-        <v>0</v>
+        <v>0.57586797043110871</v>
       </c>
       <c r="BE16" s="0">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="BM16" s="0">
-        <v>0</v>
+        <v>0.89507536005551358</v>
       </c>
       <c r="BN16" s="0">
         <v>0</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="0">
-        <v>0</v>
+        <v>0.52112703950405415</v>
       </c>
       <c r="G17" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="0">
-        <v>0</v>
+        <v>0.95986137523773862</v>
       </c>
       <c r="V17" s="0">
         <v>0</v>
@@ -3529,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="0">
         <v>0</v>
       </c>
       <c r="AL17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="0">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="0">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="0">
-        <v>0</v>
+        <v>0.8063233975100772</v>
       </c>
       <c r="BJ17" s="0">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="BL17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM17" s="0">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="0">
-        <v>0</v>
+        <v>0.90302341350865722</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0</v>
+        <v>0.71388989172778461</v>
       </c>
       <c r="AK18" s="0">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="AU18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="0">
         <v>0</v>
@@ -3777,10 +3777,10 @@
         <v>0</v>
       </c>
       <c r="AX18" s="0">
-        <v>0</v>
+        <v>0.51447476176264939</v>
       </c>
       <c r="AY18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="0">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.71810487743163343</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="0">
-        <v>0</v>
+        <v>0.94059580698170608</v>
       </c>
       <c r="AD19" s="0">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="0">
-        <v>0</v>
+        <v>0.90959650057897656</v>
       </c>
       <c r="AL19" s="0">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="0">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>0</v>
+        <v>0.62257971547079816</v>
       </c>
       <c r="AW19" s="0">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="BB19" s="0">
-        <v>0</v>
+        <v>0.97500574577261434</v>
       </c>
       <c r="BC19" s="0">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
       </c>
       <c r="BN19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO19" s="0">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
@@ -4075,10 +4075,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="0">
         <v>0</v>
@@ -4096,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.92458775385161696</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="0">
-        <v>0</v>
+        <v>0.62803511578387949</v>
       </c>
       <c r="AA20" s="0">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="AH20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="0">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>0</v>
+        <v>0.72235724187866601</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AW20" s="0">
-        <v>0</v>
+        <v>0.82757686750658244</v>
       </c>
       <c r="AX20" s="0">
         <v>0</v>
@@ -4213,13 +4213,13 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>0</v>
+        <v>0.68305355497523546</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
       </c>
       <c r="BH20" s="0">
-        <v>0</v>
+        <v>0.72432407827217782</v>
       </c>
       <c r="BI20" s="0">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="0">
         <v>0</v>
@@ -4293,25 +4293,25 @@
         <v>0</v>
       </c>
       <c r="P21" s="0">
-        <v>0</v>
+        <v>0.99535119159361252</v>
       </c>
       <c r="Q21" s="0">
-        <v>0</v>
+        <v>0.57640838476716172</v>
       </c>
       <c r="R21" s="0">
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.58450409814180704</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>0</v>
+        <v>0.79399838132523892</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="0">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.59643282644480478</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="0">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="0">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="0">
         <v>0</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="AW22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="0">
         <v>0</v>
@@ -4652,10 +4652,10 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>0</v>
+        <v>0.65167903218725165</v>
       </c>
       <c r="BP22" s="0">
-        <v>0</v>
+        <v>0.65436011898646473</v>
       </c>
     </row>
     <row r="23">
@@ -4687,10 +4687,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.60396746147682334</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="0">
-        <v>0</v>
+        <v>0.86826427323026656</v>
       </c>
       <c r="AH23" s="0">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="0">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="AT23" s="0">
-        <v>0</v>
+        <v>0.72056601498712647</v>
       </c>
       <c r="AU23" s="0">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="BK23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL23" s="0">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="0">
-        <v>0</v>
+        <v>0.59797903550547971</v>
       </c>
       <c r="G24" s="0">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="0">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="0">
         <v>0</v>
@@ -4953,13 +4953,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="0">
-        <v>0</v>
+        <v>0.86315879857479882</v>
       </c>
       <c r="AG24" s="0">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="BC24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="0">
         <v>0</v>
@@ -5043,13 +5043,13 @@
         <v>0</v>
       </c>
       <c r="BH24" s="0">
-        <v>0</v>
+        <v>0.53651104735252186</v>
       </c>
       <c r="BI24" s="0">
         <v>0</v>
       </c>
       <c r="BJ24" s="0">
-        <v>0</v>
+        <v>0.83170940967676588</v>
       </c>
       <c r="BK24" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.86242195884633399</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="0">
-        <v>0</v>
+        <v>0.55746121082893085</v>
       </c>
       <c r="AF25" s="0">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="0">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="0">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="0">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="BL25" s="0">
-        <v>0</v>
+        <v>0.99532279641168631</v>
       </c>
       <c r="BM25" s="0">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>0</v>
+        <v>0.68021261193859506</v>
       </c>
       <c r="U26" s="0">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5380,16 +5380,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="0">
         <v>0</v>
       </c>
       <c r="AK26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="0">
-        <v>0</v>
+        <v>0.70358933644568478</v>
       </c>
       <c r="AM26" s="0">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="0">
-        <v>0</v>
+        <v>0.94113421265807973</v>
       </c>
       <c r="C27" s="0">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5616,19 +5616,19 @@
         <v>0</v>
       </c>
       <c r="AS27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="0">
-        <v>0</v>
+        <v>0.53335275234266155</v>
       </c>
       <c r="AU27" s="0">
         <v>0</v>
       </c>
       <c r="AV27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX27" s="0">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="0">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="0">
-        <v>0</v>
+        <v>0.56651319061645355</v>
       </c>
       <c r="BB28" s="0">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="0">
-        <v>0</v>
+        <v>0.69545721111125891</v>
       </c>
       <c r="BK28" s="0">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>0</v>
+        <v>0.65967648921556132</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="0">
-        <v>0</v>
+        <v>0.93413441107510464</v>
       </c>
       <c r="AL29" s="0">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6043,10 +6043,10 @@
         <v>0</v>
       </c>
       <c r="AX29" s="0">
-        <v>0</v>
+        <v>0.77032759257417605</v>
       </c>
       <c r="AY29" s="0">
-        <v>0</v>
+        <v>0.8745070649486657</v>
       </c>
       <c r="AZ29" s="0">
         <v>0</v>
@@ -6055,13 +6055,13 @@
         <v>0</v>
       </c>
       <c r="BB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="0">
         <v>0</v>
       </c>
       <c r="BD29" s="0">
-        <v>0</v>
+        <v>0.83076336976363019</v>
       </c>
       <c r="BE29" s="0">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="0">
-        <v>0</v>
+        <v>0.94239461426162419</v>
       </c>
       <c r="BO29" s="0">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="0">
-        <v>0</v>
+        <v>0.99248176362940366</v>
       </c>
       <c r="J30" s="0">
         <v>0</v>
@@ -6135,19 +6135,19 @@
         <v>0</v>
       </c>
       <c r="L30" s="0">
-        <v>0</v>
+        <v>0.51973848299300562</v>
       </c>
       <c r="M30" s="0">
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="0">
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="0">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="0">
-        <v>0</v>
+        <v>0.72511307442358275</v>
       </c>
       <c r="AS30" s="0">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK30" s="0">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="BO30" s="0">
-        <v>0</v>
+        <v>0.56317290104906381</v>
       </c>
       <c r="BP30" s="0">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="0">
         <v>0</v>
@@ -6347,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>0</v>
+        <v>0.63256355027437428</v>
       </c>
       <c r="O31" s="0">
-        <v>1</v>
+        <v>0.96353244699521612</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
@@ -6377,10 +6377,10 @@
         <v>0</v>
       </c>
       <c r="X31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="0">
-        <v>0</v>
+        <v>0.96261829010105893</v>
       </c>
       <c r="Z31" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.93555845782478508</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6577,13 +6577,13 @@
         <v>0</v>
       </c>
       <c r="V32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="0">
         <v>0</v>
       </c>
       <c r="X32" s="0">
-        <v>0</v>
+        <v>0.98727872558414109</v>
       </c>
       <c r="Y32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.69120082855537501</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6619,10 +6619,10 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="0">
         <v>0</v>
@@ -6700,13 +6700,13 @@
         <v>0</v>
       </c>
       <c r="BK32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL32" s="0">
         <v>0</v>
       </c>
       <c r="BM32" s="0">
-        <v>0</v>
+        <v>0.619183652606216</v>
       </c>
       <c r="BN32" s="0">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="0">
-        <v>0</v>
+        <v>0.59380052003240014</v>
       </c>
       <c r="K33" s="0">
         <v>0</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="0">
-        <v>0</v>
+        <v>0.7404975443883367</v>
       </c>
       <c r="X33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="0">
-        <v>0</v>
+        <v>0.86561039229462344</v>
       </c>
       <c r="AM33" s="0">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="0">
-        <v>0</v>
+        <v>0.76003520693379079</v>
       </c>
       <c r="AQ33" s="0">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>0</v>
+        <v>0.72569186580800182</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
@@ -6891,13 +6891,13 @@
         <v>0</v>
       </c>
       <c r="BF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG33" s="0">
         <v>0</v>
       </c>
       <c r="BH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI33" s="0">
         <v>0</v>
@@ -6909,10 +6909,10 @@
         <v>0</v>
       </c>
       <c r="BL33" s="0">
-        <v>0</v>
+        <v>0.58521012481220691</v>
       </c>
       <c r="BM33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="0">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="0">
         <v>0</v>
@@ -7031,10 +7031,10 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.83591708709195101</v>
       </c>
       <c r="AK34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="0">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="BA34" s="0">
-        <v>0</v>
+        <v>0.74908211027954685</v>
       </c>
       <c r="BB34" s="0">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>0</v>
+        <v>0.58016121744176075</v>
       </c>
       <c r="BH34" s="0">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="0">
-        <v>0</v>
+        <v>0.56377569701314889</v>
       </c>
       <c r="C35" s="0">
         <v>0</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="0">
-        <v>0</v>
+        <v>0.66258944687529153</v>
       </c>
       <c r="G35" s="0">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="0">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="0">
-        <v>0</v>
+        <v>0.56622462863728851</v>
       </c>
       <c r="N35" s="0">
         <v>0</v>
@@ -7204,10 +7204,10 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="AO35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="0">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="0">
-        <v>0</v>
+        <v>0.55692000846873846</v>
       </c>
       <c r="BG35" s="0">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0">
-        <v>0</v>
+        <v>0.97095701489748398</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -7386,10 +7386,10 @@
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="0">
-        <v>0</v>
+        <v>0.88592733043635685</v>
       </c>
       <c r="S36" s="0">
         <v>0</v>
@@ -7431,13 +7431,13 @@
         <v>0</v>
       </c>
       <c r="AF36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="0">
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.62060775343538888</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR36" s="0">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="0">
-        <v>0</v>
+        <v>0.83040028095028928</v>
       </c>
       <c r="BB36" s="0">
         <v>0</v>
@@ -7503,10 +7503,10 @@
         <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE36" s="0">
-        <v>0</v>
+        <v>0.83170223378393637</v>
       </c>
       <c r="BF36" s="0">
         <v>0</v>
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="0">
-        <v>0</v>
+        <v>0.64913516191664455</v>
       </c>
       <c r="T37" s="0">
         <v>0</v>
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="0">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="0">
-        <v>0</v>
+        <v>0.61491626008961364</v>
       </c>
       <c r="AD37" s="0">
         <v>0</v>
@@ -7637,13 +7637,13 @@
         <v>0</v>
       </c>
       <c r="AF37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="0">
         <v>0</v>
       </c>
       <c r="AH37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="0">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="0">
-        <v>0</v>
+        <v>0.85670951489408442</v>
       </c>
       <c r="AQ37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0</v>
+        <v>0.74184028368112254</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="0">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="0">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="0">
-        <v>0</v>
+        <v>0.93638770893891488</v>
       </c>
       <c r="AA38" s="0">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>0</v>
+        <v>0.86017838150027648</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="0">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AW38" s="0">
-        <v>0</v>
+        <v>0.60831581017519998</v>
       </c>
       <c r="AX38" s="0">
         <v>0</v>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="BC38" s="0">
-        <v>0</v>
+        <v>0.64620653133325345</v>
       </c>
       <c r="BD38" s="0">
         <v>0</v>
@@ -7936,10 +7936,10 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>0</v>
+        <v>0.76667884399148645</v>
       </c>
       <c r="BL38" s="0">
-        <v>0</v>
+        <v>0.77806157931755093</v>
       </c>
       <c r="BM38" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>1</v>
+        <v>0.9136258756477007</v>
       </c>
     </row>
     <row r="39">
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="0">
-        <v>0</v>
+        <v>0.58258724368172432</v>
       </c>
       <c r="N39" s="0">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="0">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="BE39" s="0">
-        <v>0</v>
+        <v>0.64327240721235024</v>
       </c>
       <c r="BF39" s="0">
         <v>0</v>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="BH39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI39" s="0">
         <v>0</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0</v>
+        <v>0.65692573665465237</v>
       </c>
       <c r="B40" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.54621870632738023</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="AT40" s="0">
-        <v>0</v>
+        <v>0.78573330233669503</v>
       </c>
       <c r="AU40" s="0">
         <v>0</v>
@@ -8360,10 +8360,10 @@
         <v>0</v>
       </c>
       <c r="BO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>0</v>
+        <v>0.50949214039823054</v>
       </c>
       <c r="V41" s="0">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="AI41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="AY41" s="0">
-        <v>0</v>
+        <v>0.55016615584737705</v>
       </c>
       <c r="AZ41" s="0">
         <v>0</v>
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="BC41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD41" s="0">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="BJ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK41" s="0">
         <v>0</v>
@@ -8574,7 +8574,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0</v>
+        <v>0.86015540883623842</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="AG42" s="0">
-        <v>0</v>
+        <v>0.90391916445464637</v>
       </c>
       <c r="AH42" s="0">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>0</v>
+        <v>0.70492914028692999</v>
       </c>
       <c r="AL42" s="0">
         <v>0</v>
@@ -8691,16 +8691,16 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.76375136065855376</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="AT42" s="0">
-        <v>0</v>
+        <v>0.56451798223950789</v>
       </c>
       <c r="AU42" s="0">
         <v>0</v>
@@ -8754,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="BI42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ42" s="0">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="BM42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN42" s="0">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="0">
-        <v>0</v>
+        <v>0.75455467926485498</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="0">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="0">
         <v>0</v>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="0">
         <v>0</v>
@@ -8903,13 +8903,13 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.74181662986191532</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="0">
-        <v>0</v>
+        <v>0.98871215771248289</v>
       </c>
       <c r="BN43" s="0">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="0">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>0</v>
+        <v>0.84191457085424004</v>
       </c>
       <c r="U44" s="0">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="AD44" s="0">
-        <v>0</v>
+        <v>0.62232789910173536</v>
       </c>
       <c r="AE44" s="0">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.70064662122084287</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="BG44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH44" s="0">
         <v>0</v>
@@ -9270,13 +9270,13 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
       </c>
       <c r="AC45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0</v>
+        <v>0.52993583377117881</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0</v>
+        <v>0.53852016519555346</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="AW45" s="0">
-        <v>0</v>
+        <v>0.78352483100073333</v>
       </c>
       <c r="AX45" s="0">
         <v>0</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" s="0">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="0">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="0">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="0">
-        <v>0</v>
+        <v>0.71731576260007257</v>
       </c>
       <c r="X46" s="0">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="0">
-        <v>0</v>
+        <v>0.73473878873536758</v>
       </c>
       <c r="AB46" s="0">
         <v>0</v>
@@ -9515,13 +9515,13 @@
         <v>0</v>
       </c>
       <c r="AN46" s="0">
-        <v>0</v>
+        <v>0.70635352460323053</v>
       </c>
       <c r="AO46" s="0">
         <v>0</v>
       </c>
       <c r="AP46" s="0">
-        <v>0</v>
+        <v>0.59701328776066087</v>
       </c>
       <c r="AQ46" s="0">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AW46" s="0">
-        <v>0</v>
+        <v>0.95348743976051242</v>
       </c>
       <c r="AX46" s="0">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>0</v>
+        <v>0.72549368502585221</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="BE46" s="0">
-        <v>0</v>
+        <v>0.71867516190974512</v>
       </c>
       <c r="BF46" s="0">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="BH46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI46" s="0">
         <v>0</v>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9622,10 +9622,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="0">
-        <v>0</v>
+        <v>0.88857065724776962</v>
       </c>
       <c r="I47" s="0">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="0">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.91315328590675149</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.63787311284238002</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9760,10 +9760,10 @@
         <v>0</v>
       </c>
       <c r="BA47" s="0">
-        <v>0</v>
+        <v>0.75708816103420307</v>
       </c>
       <c r="BB47" s="0">
-        <v>0</v>
+        <v>0.93029149540309408</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG47" s="0">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="0">
-        <v>0</v>
+        <v>0.62580558523966001</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0</v>
+        <v>0.71228419102134233</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.51196180211346065</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9984,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="BG48" s="0">
-        <v>0</v>
+        <v>0.90088618021766487</v>
       </c>
       <c r="BH48" s="0">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="BP48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -10073,13 +10073,13 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>0</v>
+        <v>0.53215462740355701</v>
       </c>
       <c r="U49" s="0">
         <v>0</v>
       </c>
       <c r="V49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="0">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="0">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="AL49" s="0">
-        <v>0</v>
+        <v>0.82235819425262391</v>
       </c>
       <c r="AM49" s="0">
         <v>0</v>
@@ -10148,13 +10148,13 @@
         <v>0</v>
       </c>
       <c r="AS49" s="0">
-        <v>0</v>
+        <v>0.54313449429100535</v>
       </c>
       <c r="AT49" s="0">
-        <v>0</v>
+        <v>0.99926289345419583</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.89794163690170525</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10178,10 +10178,10 @@
         <v>0</v>
       </c>
       <c r="BC49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD49" s="0">
-        <v>0</v>
+        <v>0.58564261563088982</v>
       </c>
       <c r="BE49" s="0">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="BL49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM49" s="0">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="0">
-        <v>0</v>
+        <v>0.92705307622589772</v>
       </c>
       <c r="S50" s="0">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="0">
         <v>0</v>
@@ -10306,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="0">
-        <v>0</v>
+        <v>0.83886199103381132</v>
       </c>
       <c r="AD50" s="0">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.65698792491583224</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10384,10 +10384,10 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>1</v>
+        <v>0.75408413667864815</v>
       </c>
       <c r="BD50" s="0">
-        <v>0</v>
+        <v>0.99371888367952987</v>
       </c>
       <c r="BE50" s="0">
         <v>0</v>
@@ -10417,13 +10417,13 @@
         <v>0</v>
       </c>
       <c r="BN50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO50" s="0">
         <v>0</v>
       </c>
       <c r="BP50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>0</v>
+        <v>0.97331291190539548</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>0</v>
+        <v>0.89806787074055938</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="0">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="0">
-        <v>0</v>
+        <v>0.88547993038538864</v>
       </c>
       <c r="AD51" s="0">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>0</v>
+        <v>0.91365136779243095</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.84991991045793225</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.87064311448390996</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10617,13 +10617,13 @@
         <v>0</v>
       </c>
       <c r="BL51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM51" s="0">
         <v>0</v>
       </c>
       <c r="BN51" s="0">
-        <v>0</v>
+        <v>0.7652442537258537</v>
       </c>
       <c r="BO51" s="0">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="0">
-        <v>1</v>
+        <v>0.50145239772781958</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -10655,16 +10655,16 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>0</v>
+        <v>0.67181574172907976</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>0</v>
+        <v>0.86393292907916786</v>
       </c>
       <c r="K52" s="0">
-        <v>1</v>
+        <v>0.76106676634575576</v>
       </c>
       <c r="L52" s="0">
         <v>0</v>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="0">
-        <v>0</v>
+        <v>0.755826898486468</v>
       </c>
       <c r="AU52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>0</v>
+        <v>0.51871638795789921</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>0</v>
+        <v>0.98226973141652396</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="0">
         <v>0</v>
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="0">
-        <v>0</v>
+        <v>0.62066683365795772</v>
       </c>
       <c r="AC53" s="0">
         <v>0</v>
@@ -10939,13 +10939,13 @@
         <v>0</v>
       </c>
       <c r="AH53" s="0">
-        <v>0</v>
+        <v>0.55237858232481818</v>
       </c>
       <c r="AI53" s="0">
         <v>0</v>
       </c>
       <c r="AJ53" s="0">
-        <v>0</v>
+        <v>0.5392654635250016</v>
       </c>
       <c r="AK53" s="0">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="AU53" s="0">
-        <v>0</v>
+        <v>0.73193768381509838</v>
       </c>
       <c r="AV53" s="0">
         <v>0</v>
@@ -10990,10 +10990,10 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.80346993432328118</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>0</v>
+        <v>0.51377192027053442</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="0">
-        <v>0</v>
+        <v>0.90321136472429298</v>
       </c>
       <c r="T54" s="0">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="0">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>0</v>
+        <v>0.85624568377437982</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.6076010397219318</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="BM54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN54" s="0">
         <v>0</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="BP54" s="0">
-        <v>0</v>
+        <v>0.59355262058713198</v>
       </c>
     </row>
     <row r="55">
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="0">
-        <v>0</v>
+        <v>0.65410356304105743</v>
       </c>
       <c r="AM55" s="0">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="AO55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="0">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="AW55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX55" s="0">
-        <v>1</v>
+        <v>0.99895612665822897</v>
       </c>
       <c r="AY55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.84242526050609423</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.72632244375351862</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
@@ -11503,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="0">
-        <v>0</v>
+        <v>0.93318849262063641</v>
       </c>
       <c r="Q56" s="0">
         <v>0</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>0</v>
+        <v>0.73470753177224923</v>
       </c>
       <c r="AD56" s="0">
         <v>0</v>
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="0">
         <v>0</v>
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="AW56" s="0">
-        <v>0</v>
+        <v>0.68368706773798316</v>
       </c>
       <c r="AX56" s="0">
-        <v>0</v>
+        <v>0.81743544599823725</v>
       </c>
       <c r="AY56" s="0">
         <v>0</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="0">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="0">
         <v>0</v>
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="0">
-        <v>0</v>
+        <v>0.72535137068187749</v>
       </c>
       <c r="AK57" s="0">
         <v>0</v>
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="AM57" s="0">
-        <v>0</v>
+        <v>0.95056666199760276</v>
       </c>
       <c r="AN57" s="0">
         <v>0</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="AT57" s="0">
-        <v>0</v>
+        <v>0.5790732564862735</v>
       </c>
       <c r="AU57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.82697682474025602</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="0">
-        <v>0</v>
+        <v>0.98503559727966028</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>0</v>
+        <v>0.55100940984849012</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -11966,13 +11966,13 @@
         <v>0</v>
       </c>
       <c r="AG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="0">
         <v>0</v>
       </c>
       <c r="AI58" s="0">
-        <v>0</v>
+        <v>0.96028343155640061</v>
       </c>
       <c r="AJ58" s="0">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="AU58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.80392696919455564</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="BN58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO58" s="0">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="0">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="0">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>0</v>
+        <v>0.5704503361378821</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="AR59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="0">
         <v>0</v>
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="AV59" s="0">
-        <v>0</v>
+        <v>0.86097064944250901</v>
       </c>
       <c r="AW59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>0</v>
+        <v>0.89607265754834331</v>
       </c>
       <c r="U60" s="0">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="0">
-        <v>0</v>
+        <v>0.83712296664843477</v>
       </c>
       <c r="Y60" s="0">
         <v>0</v>
@@ -12378,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="AG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="0">
         <v>0</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="AM60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN60" s="0">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AT60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU60" s="0">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="BB60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.51187434341813831</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12468,13 +12468,13 @@
         <v>0</v>
       </c>
       <c r="BK60" s="0">
-        <v>0</v>
+        <v>0.85975352677888506</v>
       </c>
       <c r="BL60" s="0">
         <v>0</v>
       </c>
       <c r="BM60" s="0">
-        <v>0</v>
+        <v>0.78760500558377178</v>
       </c>
       <c r="BN60" s="0">
         <v>0</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0</v>
+        <v>0.953087019512876</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -12512,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="0">
-        <v>0</v>
+        <v>0.66718589321710198</v>
       </c>
       <c r="J61" s="0">
         <v>0</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0</v>
+        <v>0.64638846075504375</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="0">
         <v>0</v>
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12730,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="0">
-        <v>0</v>
+        <v>0.81240153469088727</v>
       </c>
       <c r="N62" s="0">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>0</v>
+        <v>0.68525968599768827</v>
       </c>
       <c r="Y62" s="0">
         <v>0</v>
@@ -12775,13 +12775,13 @@
         <v>0</v>
       </c>
       <c r="AB62" s="0">
-        <v>0</v>
+        <v>0.50979723503070851</v>
       </c>
       <c r="AC62" s="0">
         <v>0</v>
       </c>
       <c r="AD62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="0">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="AO62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP62" s="0">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>0</v>
+        <v>0.76297440475838085</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.81390299170934766</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" s="0">
         <v>0</v>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="AF63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG63" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0</v>
+        <v>0.72655332780313286</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13077,22 +13077,22 @@
         <v>0</v>
       </c>
       <c r="BH63" s="0">
-        <v>0</v>
+        <v>0.79242750901770964</v>
       </c>
       <c r="BI63" s="0">
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.69947188747036948</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>0</v>
+        <v>0.93813562899211012</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -13154,13 +13154,13 @@
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" s="0">
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="0">
-        <v>0</v>
+        <v>0.83742262585820693</v>
       </c>
       <c r="Z64" s="0">
         <v>0</v>
@@ -13202,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="AG64" s="0">
-        <v>0</v>
+        <v>0.93465988605078687</v>
       </c>
       <c r="AH64" s="0">
         <v>0</v>
@@ -13217,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="AL64" s="0">
-        <v>0</v>
+        <v>0.93467087542193095</v>
       </c>
       <c r="AM64" s="0">
         <v>0</v>
@@ -13250,13 +13250,13 @@
         <v>0</v>
       </c>
       <c r="AW64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX64" s="0">
         <v>0</v>
       </c>
       <c r="AY64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13336,7 +13336,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="0">
         <v>0</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="0">
-        <v>0</v>
+        <v>0.57101985239739017</v>
       </c>
       <c r="M65" s="0">
         <v>0</v>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="0">
-        <v>0</v>
+        <v>0.86336883002734033</v>
       </c>
       <c r="Q65" s="0">
         <v>0</v>
@@ -13405,10 +13405,10 @@
         <v>0</v>
       </c>
       <c r="AF65" s="0">
-        <v>0</v>
+        <v>0.64998360308960668</v>
       </c>
       <c r="AG65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
@@ -13435,10 +13435,10 @@
         <v>0</v>
       </c>
       <c r="AP65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>0</v>
+        <v>0.90031845813802736</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="BB65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC65" s="0">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="BH65" s="0">
-        <v>0</v>
+        <v>0.65244135555991145</v>
       </c>
       <c r="BI65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="BP65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -13542,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="0">
-        <v>0</v>
+        <v>0.89540473828456779</v>
       </c>
       <c r="J66" s="0">
         <v>0</v>
@@ -13572,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="0">
         <v>0</v>
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="0">
-        <v>0</v>
+        <v>0.85750280892715436</v>
       </c>
       <c r="AD66" s="0">
         <v>0</v>
@@ -13665,10 +13665,10 @@
         <v>0</v>
       </c>
       <c r="AX66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="0">
-        <v>0</v>
+        <v>0.63978770665636375</v>
       </c>
       <c r="AZ66" s="0">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="BF66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.52101909372174826</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13733,10 +13733,10 @@
         <v>0</v>
       </c>
       <c r="D67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="0">
-        <v>0</v>
+        <v>0.97194377782091212</v>
       </c>
       <c r="F67" s="0">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>0</v>
+        <v>0.97631670262692438</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="0">
         <v>0</v>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="AD67" s="0">
-        <v>0</v>
+        <v>0.70085876215664622</v>
       </c>
       <c r="AE67" s="0">
         <v>0</v>
@@ -13841,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="AN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO67" s="0">
         <v>0</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>0</v>
+        <v>0.80759733626677366</v>
       </c>
       <c r="F68" s="0">
         <v>0</v>
@@ -13969,7 +13969,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="0">
-        <v>0</v>
+        <v>0.87665961495681721</v>
       </c>
       <c r="O68" s="0">
         <v>0</v>
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="0">
-        <v>0</v>
+        <v>0.75783797152860077</v>
       </c>
       <c r="W68" s="0">
         <v>0</v>
@@ -14041,13 +14041,13 @@
         <v>0</v>
       </c>
       <c r="AL68" s="0">
-        <v>1</v>
+        <v>0.70615633588521554</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
       </c>
       <c r="AN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO68" s="0">
         <v>0</v>
@@ -14071,13 +14071,13 @@
         <v>0</v>
       </c>
       <c r="AV68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="0">
         <v>0</v>
       </c>
       <c r="AX68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="0">
         <v>0</v>
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="BB68" s="0">
-        <v>0</v>
+        <v>0.76985664690767663</v>
       </c>
       <c r="BC68" s="0">
         <v>0</v>
@@ -14122,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject48.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject48.xlsx
@@ -308,7 +308,7 @@
         <v>0</v>
       </c>
       <c r="BI1" s="0">
-        <v>0.53866866669787716</v>
+        <v>0.953087019512876</v>
       </c>
       <c r="BJ1" s="0">
         <v>0</v>
@@ -334,13 +334,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.84281414350465078</v>
+        <v>0.94415120313753498</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.50347769492999794</v>
+        <v>0.52892076733121951</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.75334596352108041</v>
+        <v>0.94113421265807973</v>
       </c>
       <c r="AB2" s="0">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>0.566274485691038</v>
+        <v>0.91758663211644254</v>
       </c>
       <c r="M3" s="0">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="AY4" s="0">
-        <v>0.63541371770758426</v>
+        <v>0.97331291190539548</v>
       </c>
       <c r="AZ4" s="0">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="BO5" s="0">
-        <v>0.62559193551422709</v>
+        <v>0.97194377782091212</v>
       </c>
       <c r="BP5" s="0">
-        <v>0.59431764847530033</v>
+        <v>0.80759733626677366</v>
       </c>
     </row>
     <row r="6">
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.57722858700180235</v>
+        <v>0.8151352135985942</v>
       </c>
       <c r="H6" s="0">
         <v>0.80586924324331477</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AI6" s="0">
-        <v>0.54253952956723273</v>
+        <v>0.66258944687529153</v>
       </c>
       <c r="AJ6" s="0">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>0.87917242347291358</v>
+        <v>0.89806787074055938</v>
       </c>
       <c r="AZ6" s="0">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="0">
-        <v>0.52858017461621176</v>
+        <v>0.97095701489748398</v>
       </c>
       <c r="AK7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.69548680216354053</v>
+        <v>0.80586924324331477</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="0">
-        <v>0.85444167990640452</v>
+        <v>0.88857065724776962</v>
       </c>
       <c r="AV8" s="0">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.80470779625190481</v>
+        <v>0.99248176362940366</v>
       </c>
       <c r="AE9" s="0">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="0">
-        <v>0.70654045009287492</v>
+        <v>0.75780554151610346</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="0">
-        <v>0.55087417858384002</v>
+        <v>0.59380052003240014</v>
       </c>
       <c r="AH10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0.80503002416340386</v>
+        <v>0.86393292907916786</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="BL11" s="0">
-        <v>0.93147054853901312</v>
+        <v>0.93813562899211012</v>
       </c>
       <c r="BM11" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.9480172283506636</v>
+        <v>0.98785106466078854</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>0.55966846961042416</v>
+        <v>0.84117869472973583</v>
       </c>
       <c r="E13" s="0">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="0">
-        <v>0.51854592842725566</v>
+        <v>0.56622462863728851</v>
       </c>
       <c r="AJ13" s="0">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="0">
-        <v>0.78190287092804855</v>
+        <v>0.81240153469088727</v>
       </c>
       <c r="BK13" s="0">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="0">
-        <v>0.58612548614752336</v>
+        <v>0.98226973141652396</v>
       </c>
       <c r="BB14" s="0">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="BP14" s="0">
-        <v>0.87175753750074136</v>
+        <v>0.87665961495681721</v>
       </c>
     </row>
     <row r="15">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="0">
-        <v>0.69122191800037325</v>
+        <v>0.90302341350865722</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>0.65713291767360571</v>
+        <v>0.96353244699521612</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="0">
-        <v>0.66197804591036058</v>
+        <v>0.98503559727966028</v>
       </c>
       <c r="BG15" s="0">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="0">
-        <v>0.65551595970605225</v>
+        <v>0.88569623654825302</v>
       </c>
       <c r="H16" s="0">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="0">
-        <v>0.75831531962923993</v>
+        <v>0.99535119159361252</v>
       </c>
       <c r="V16" s="0">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="BD16" s="0">
-        <v>0.57586797043110871</v>
+        <v>0.93318849262063641</v>
       </c>
       <c r="BE16" s="0">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="0">
-        <v>0.52112703950405415</v>
+        <v>0.68628834189253674</v>
       </c>
       <c r="G17" s="0">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0.71388989172778461</v>
+        <v>0.88592733043635685</v>
       </c>
       <c r="AK18" s="0">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="0">
-        <v>0.51447476176264939</v>
+        <v>0.92705307622589772</v>
       </c>
       <c r="AY18" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.71810487743163343</v>
+        <v>0.92458775385161696</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>0.62257971547079816</v>
+        <v>0.71228419102134233</v>
       </c>
       <c r="AW19" s="0">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="0">
-        <v>0.62803511578387949</v>
+        <v>0.68021261193859506</v>
       </c>
       <c r="AA20" s="0">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>0.72235724187866601</v>
+        <v>0.84191457085424004</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="BH20" s="0">
-        <v>0.72432407827217782</v>
+        <v>0.89607265754834331</v>
       </c>
       <c r="BI20" s="0">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>0.99535119159361252</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.57640838476716172</v>
+        <v>0.95986137523773862</v>
       </c>
       <c r="R21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.58450409814180704</v>
+        <v>0.59643282644480478</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4652,10 +4652,10 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>0.65167903218725165</v>
+        <v>0.97631670262692438</v>
       </c>
       <c r="BP22" s="0">
-        <v>0.65436011898646473</v>
+        <v>0.75783797152860077</v>
       </c>
     </row>
     <row r="23">
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.60396746147682334</v>
+        <v>0.86242195884633399</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="0">
-        <v>0.59797903550547971</v>
+        <v>0.83304297535504368</v>
       </c>
       <c r="G24" s="0">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="0">
-        <v>0.86315879857479882</v>
+        <v>0.98727872558414109</v>
       </c>
       <c r="AG24" s="0">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="BH24" s="0">
-        <v>0.53651104735252186</v>
+        <v>0.83712296664843477</v>
       </c>
       <c r="BI24" s="0">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="0">
-        <v>0.55746121082893085</v>
+        <v>0.96261829010105893</v>
       </c>
       <c r="AF25" s="0">
         <v>0</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="0">
-        <v>0.70358933644568478</v>
+        <v>0.93638770893891488</v>
       </c>
       <c r="AM26" s="0">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="AT27" s="0">
-        <v>0.53335275234266155</v>
+        <v>0.73473878873536758</v>
       </c>
       <c r="AU27" s="0">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="0">
-        <v>0.56651319061645355</v>
+        <v>0.62066683365795772</v>
       </c>
       <c r="BB28" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>0.65967648921556132</v>
+        <v>0.94059580698170608</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -6043,10 +6043,10 @@
         <v>0</v>
       </c>
       <c r="AX29" s="0">
-        <v>0.77032759257417605</v>
+        <v>0.83886199103381132</v>
       </c>
       <c r="AY29" s="0">
-        <v>0.8745070649486657</v>
+        <v>0.88547993038538864</v>
       </c>
       <c r="AZ29" s="0">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="0">
-        <v>0.51973848299300562</v>
+        <v>0.84095272953514788</v>
       </c>
       <c r="M30" s="0">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="BO30" s="0">
-        <v>0.56317290104906381</v>
+        <v>0.70085876215664622</v>
       </c>
       <c r="BP30" s="0">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>0.63256355027437428</v>
+        <v>0.85510799473560639</v>
       </c>
       <c r="O31" s="0">
         <v>0.96353244699521612</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.69120082855537501</v>
+        <v>0.93555845782478508</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="0">
-        <v>0.619183652606216</v>
+        <v>0.64998360308960668</v>
       </c>
       <c r="BN32" s="0">
         <v>0</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="0">
-        <v>0.7404975443883367</v>
+        <v>0.86826427323026656</v>
       </c>
       <c r="X33" s="0">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="0">
-        <v>0.76003520693379079</v>
+        <v>0.90391916445464637</v>
       </c>
       <c r="AQ33" s="0">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="BL33" s="0">
-        <v>0.58521012481220691</v>
+        <v>0.93465988605078687</v>
       </c>
       <c r="BM33" s="0">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="0">
-        <v>0.56377569701314889</v>
+        <v>0.57670964525574619</v>
       </c>
       <c r="C35" s="0">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="0">
-        <v>0.55692000846873846</v>
+        <v>0.96028343155640061</v>
       </c>
       <c r="BG35" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.62060775343538888</v>
+        <v>0.83591708709195101</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="0">
-        <v>0.64913516191664455</v>
+        <v>0.90959650057897656</v>
       </c>
       <c r="T37" s="0">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="0">
-        <v>0.61491626008961364</v>
+        <v>0.93413441107510464</v>
       </c>
       <c r="AD37" s="0">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>0.86017838150027648</v>
+        <v>0.86561039229462344</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AW38" s="0">
-        <v>0.60831581017519998</v>
+        <v>0.82235819425262391</v>
       </c>
       <c r="AX38" s="0">
         <v>0</v>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="BC38" s="0">
-        <v>0.64620653133325345</v>
+        <v>0.65410356304105743</v>
       </c>
       <c r="BD38" s="0">
         <v>0</v>
@@ -7939,7 +7939,7 @@
         <v>0.76667884399148645</v>
       </c>
       <c r="BL38" s="0">
-        <v>0.77806157931755093</v>
+        <v>0.93467087542193095</v>
       </c>
       <c r="BM38" s="0">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="0">
-        <v>0.58258724368172432</v>
+        <v>0.74421294657983716</v>
       </c>
       <c r="N39" s="0">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="BE39" s="0">
-        <v>0.64327240721235024</v>
+        <v>0.95056666199760276</v>
       </c>
       <c r="BF39" s="0">
         <v>0</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.65692573665465237</v>
+        <v>0.80316806121768258</v>
       </c>
       <c r="B40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.54621870632738023</v>
+        <v>0.76375136065855376</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>0.50949214039823054</v>
+        <v>0.79399838132523892</v>
       </c>
       <c r="V41" s="0">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="AY41" s="0">
-        <v>0.55016615584737705</v>
+        <v>0.91365136779243095</v>
       </c>
       <c r="AZ41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0.86015540883623842</v>
+        <v>0.9165177540979681</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>0.70492914028692999</v>
+        <v>0.85670951489408442</v>
       </c>
       <c r="AL42" s="0">
         <v>0</v>
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="AT42" s="0">
-        <v>0.56451798223950789</v>
+        <v>0.59701328776066087</v>
       </c>
       <c r="AU42" s="0">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="0">
-        <v>0.75455467926485498</v>
+        <v>0.75572994438072527</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="AD44" s="0">
-        <v>0.62232789910173536</v>
+        <v>0.72511307442358275</v>
       </c>
       <c r="AE44" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.70064662122084287</v>
+        <v>0.74181662986191532</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0.52993583377117881</v>
+        <v>0.72569186580800182</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0.53852016519555346</v>
+        <v>0.74184028368112254</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="0">
-        <v>0.71731576260007257</v>
+        <v>0.72056601498712647</v>
       </c>
       <c r="X46" s="0">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="0">
-        <v>0.70635352460323053</v>
+        <v>0.78573330233669503</v>
       </c>
       <c r="AO46" s="0">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AW46" s="0">
-        <v>0.95348743976051242</v>
+        <v>0.99926289345419583</v>
       </c>
       <c r="AX46" s="0">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>0.72549368502585221</v>
+        <v>0.755826898486468</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0.91315328590675149</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.63787311284238002</v>
+        <v>0.89794163690170525</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="0">
-        <v>0.62580558523966001</v>
+        <v>0.85565603498743514</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.51196180211346065</v>
+        <v>0.91315328590675149</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>0.53215462740355701</v>
+        <v>0.82757686750658244</v>
       </c>
       <c r="U49" s="0">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="0">
-        <v>0.54313449429100535</v>
+        <v>0.78352483100073333</v>
       </c>
       <c r="AT49" s="0">
         <v>0.99926289345419583</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="BD49" s="0">
-        <v>0.58564261563088982</v>
+        <v>0.68368706773798316</v>
       </c>
       <c r="BE49" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0.65698792491583224</v>
+        <v>0.84991991045793225</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>0.75408413667864815</v>
+        <v>0.99895612665822897</v>
       </c>
       <c r="BD50" s="0">
         <v>0.99371888367952987</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="0">
-        <v>0.50145239772781958</v>
+        <v>0.70773085687114046</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>0.67181574172907976</v>
+        <v>0.70903767430487452</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0.86393292907916786</v>
       </c>
       <c r="K52" s="0">
-        <v>0.76106676634575576</v>
+        <v>0.99385061889364379</v>
       </c>
       <c r="L52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>0.51871638795789921</v>
+        <v>0.55422602796515252</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10939,13 +10939,13 @@
         <v>0</v>
       </c>
       <c r="AH53" s="0">
-        <v>0.55237858232481818</v>
+        <v>0.74908211027954685</v>
       </c>
       <c r="AI53" s="0">
         <v>0</v>
       </c>
       <c r="AJ53" s="0">
-        <v>0.5392654635250016</v>
+        <v>0.83040028095028928</v>
       </c>
       <c r="AK53" s="0">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="AU53" s="0">
-        <v>0.73193768381509838</v>
+        <v>0.75708816103420307</v>
       </c>
       <c r="AV53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.80346993432328118</v>
+        <v>0.87064311448390996</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>0.51377192027053442</v>
+        <v>0.76297440475838085</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="0">
-        <v>0.90321136472429298</v>
+        <v>0.97500574577261434</v>
       </c>
       <c r="T54" s="0">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>0.85624568377437982</v>
+        <v>0.93029149540309408</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.6076010397219318</v>
+        <v>0.84242526050609423</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="BP54" s="0">
-        <v>0.59355262058713198</v>
+        <v>0.76985664690767663</v>
       </c>
     </row>
     <row r="55">
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.72632244375351862</v>
+        <v>0.82697682474025602</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>0.73470753177224923</v>
+        <v>0.83076336976363019</v>
       </c>
       <c r="AD56" s="0">
         <v>0</v>
@@ -11605,7 +11605,7 @@
         <v>0.68368706773798316</v>
       </c>
       <c r="AX56" s="0">
-        <v>0.81743544599823725</v>
+        <v>0.99371888367952987</v>
       </c>
       <c r="AY56" s="0">
         <v>0</v>
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="0">
-        <v>0.72535137068187749</v>
+        <v>0.83170223378393637</v>
       </c>
       <c r="AK57" s="0">
         <v>0</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="AT57" s="0">
-        <v>0.5790732564862735</v>
+        <v>0.71867516190974512</v>
       </c>
       <c r="AU57" s="0">
         <v>0</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>0.55100940984849012</v>
+        <v>0.68305355497523546</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>0.5704503361378821</v>
+        <v>0.58016121744176075</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="AV59" s="0">
-        <v>0.86097064944250901</v>
+        <v>0.90088618021766487</v>
       </c>
       <c r="AW59" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.51187434341813831</v>
+        <v>0.80392696919455564</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12512,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="0">
-        <v>0.66718589321710198</v>
+        <v>0.71538205948719436</v>
       </c>
       <c r="J61" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0.64638846075504375</v>
+        <v>0.8063233975100772</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>0.68525968599768827</v>
+        <v>0.83170940967676588</v>
       </c>
       <c r="Y62" s="0">
         <v>0</v>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="0">
-        <v>0.50979723503070851</v>
+        <v>0.69545721111125891</v>
       </c>
       <c r="AC62" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0.72655332780313286</v>
+        <v>0.76667884399148645</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13077,13 +13077,13 @@
         <v>0</v>
       </c>
       <c r="BH63" s="0">
-        <v>0.79242750901770964</v>
+        <v>0.85975352677888506</v>
       </c>
       <c r="BI63" s="0">
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.69947188747036948</v>
+        <v>0.81390299170934766</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="0">
-        <v>0.83742262585820693</v>
+        <v>0.99532279641168631</v>
       </c>
       <c r="Z64" s="0">
         <v>0</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="0">
-        <v>0.57101985239739017</v>
+        <v>0.62229702442227752</v>
       </c>
       <c r="M65" s="0">
         <v>0</v>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="0">
-        <v>0.86336883002734033</v>
+        <v>0.89507536005551358</v>
       </c>
       <c r="Q65" s="0">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>0.90031845813802736</v>
+        <v>0.98871215771248289</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="BH65" s="0">
-        <v>0.65244135555991145</v>
+        <v>0.78760500558377178</v>
       </c>
       <c r="BI65" s="0">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="0">
-        <v>0.89540473828456779</v>
+        <v>0.97935344390520496</v>
       </c>
       <c r="J66" s="0">
         <v>0</v>
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="0">
-        <v>0.85750280892715436</v>
+        <v>0.94239461426162419</v>
       </c>
       <c r="AD66" s="0">
         <v>0</v>
@@ -13668,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="AY66" s="0">
-        <v>0.63978770665636375</v>
+        <v>0.7652442537258537</v>
       </c>
       <c r="AZ66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.52101909372174826</v>
+        <v>0.68696207478540172</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="0">
-        <v>0.70615633588521554</v>
+        <v>0.9136258756477007</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
